--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7430-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7430-2020.xlsx", "A 7430-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7430-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7430-2020.png", "A 7430-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7430-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7430-2020.docx", "A 7430-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7430-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7430-2020.docx", "A 7430-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7430-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7430-2020.docx", "A 7430-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7430-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7430-2020.docx", "A 7430-2020")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,27 +725,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 5527-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 5527-2023.xlsx", "A 5527-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 5527-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 5527-2023.png", "A 5527-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 5527-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 5527-2023.docx", "A 5527-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 5527-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 5527-2023.docx", "A 5527-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 5527-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 5527-2023.docx", "A 5527-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 5527-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 5527-2023.docx", "A 5527-2023")</f>
         <v/>
       </c>
     </row>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -819,27 +819,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 39902-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 39902-2019.xlsx", "A 39902-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 39902-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 39902-2019.png", "A 39902-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 39902-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 39902-2019.docx", "A 39902-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 39902-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 39902-2019.docx", "A 39902-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 39902-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 39902-2019.docx", "A 39902-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 39902-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 39902-2019.docx", "A 39902-2019")</f>
         <v/>
       </c>
     </row>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -908,27 +908,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 3220-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 3220-2020.xlsx", "A 3220-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 3220-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 3220-2020.png", "A 3220-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 3220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 3220-2020.docx", "A 3220-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 3220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 3220-2020.docx", "A 3220-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 3220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 3220-2020.docx", "A 3220-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 3220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 3220-2020.docx", "A 3220-2020")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 71283-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 71283-2018.xlsx", "A 71283-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 71283-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 71283-2018.png", "A 71283-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 71283-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 71283-2018.docx", "A 71283-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 71283-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 71283-2018.docx", "A 71283-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 71283-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 71283-2018.docx", "A 71283-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 71283-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 71283-2018.docx", "A 71283-2018")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,27 +1084,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 1212-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 1212-2023.xlsx", "A 1212-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 1212-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 1212-2023.png", "A 1212-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 1212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 1212-2023.docx", "A 1212-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 1212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 1212-2023.docx", "A 1212-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 1212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 1212-2023.docx", "A 1212-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 1212-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 1212-2023.docx", "A 1212-2023")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,27 +1172,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 5558-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 5558-2023.xlsx", "A 5558-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 5558-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 5558-2023.png", "A 5558-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 5558-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 5558-2023.docx", "A 5558-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 5558-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 5558-2023.docx", "A 5558-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 5558-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 5558-2023.docx", "A 5558-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 5558-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 5558-2023.docx", "A 5558-2023")</f>
         <v/>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1259,27 +1259,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 41371-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 41371-2021.xlsx", "A 41371-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 41371-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 41371-2021.png", "A 41371-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 41371-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 41371-2021.docx", "A 41371-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 41371-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 41371-2021.docx", "A 41371-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 41371-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 41371-2021.docx", "A 41371-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 41371-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 41371-2021.docx", "A 41371-2021")</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,27 +1345,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 3215-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 3215-2020.xlsx", "A 3215-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 3215-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 3215-2020.png", "A 3215-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 3215-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 3215-2020.docx", "A 3215-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 3215-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 3215-2020.docx", "A 3215-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 3215-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 3215-2020.docx", "A 3215-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 3215-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 3215-2020.docx", "A 3215-2020")</f>
         <v/>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,27 +1431,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 559-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 559-2021.xlsx", "A 559-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 559-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 559-2021.png", "A 559-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 559-2021.docx", "A 559-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 559-2021.docx", "A 559-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 559-2021.docx", "A 559-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 559-2021.docx", "A 559-2021")</f>
         <v/>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1517,27 +1517,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 2294-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 2294-2021.xlsx", "A 2294-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 2294-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 2294-2021.png", "A 2294-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 2294-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 2294-2021.docx", "A 2294-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 2294-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 2294-2021.docx", "A 2294-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 2294-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 2294-2021.docx", "A 2294-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 2294-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 2294-2021.docx", "A 2294-2021")</f>
         <v/>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,27 +1608,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 15314-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 15314-2021.xlsx", "A 15314-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 15314-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 15314-2021.png", "A 15314-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 15314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 15314-2021.docx", "A 15314-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 15314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 15314-2021.docx", "A 15314-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 15314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 15314-2021.docx", "A 15314-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 15314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 15314-2021.docx", "A 15314-2021")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 16869-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 16869-2021.xlsx", "A 16869-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 16869-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 16869-2021.png", "A 16869-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 16869-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 16869-2021.docx", "A 16869-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 16869-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 16869-2021.docx", "A 16869-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 16869-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 16869-2021.docx", "A 16869-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 16869-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 16869-2021.docx", "A 16869-2021")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1789,27 +1789,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7152-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7152-2020.xlsx", "A 7152-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7152-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7152-2020.png", "A 7152-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7152-2020.docx", "A 7152-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7152-2020.docx", "A 7152-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7152-2020.docx", "A 7152-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7152-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7152-2020.docx", "A 7152-2020")</f>
         <v/>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1879,27 +1879,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 18965-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 18965-2020.xlsx", "A 18965-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 18965-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 18965-2020.png", "A 18965-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 18965-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 18965-2020.docx", "A 18965-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 18965-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 18965-2020.docx", "A 18965-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 18965-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 18965-2020.docx", "A 18965-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 18965-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 18965-2020.docx", "A 18965-2020")</f>
         <v/>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,27 +1969,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 12989-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 12989-2021.xlsx", "A 12989-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 12989-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 12989-2021.png", "A 12989-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 12989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 12989-2021.docx", "A 12989-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 12989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 12989-2021.docx", "A 12989-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 12989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 12989-2021.docx", "A 12989-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 12989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 12989-2021.docx", "A 12989-2021")</f>
         <v/>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,27 +2054,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31980-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31980-2021.xlsx", "A 31980-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31980-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31980-2021.png", "A 31980-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31980-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31980-2021.docx", "A 31980-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31980-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31980-2021.docx", "A 31980-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31980-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31980-2021.docx", "A 31980-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31980-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31980-2021.docx", "A 31980-2021")</f>
         <v/>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,27 +2139,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 37100-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 37100-2021.xlsx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 37100-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 37100-2021.png", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 37100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 37100-2021.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 37100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 37100-2021.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 37100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 37100-2021.docx", "A 37100-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 37100-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 37100-2021.docx", "A 37100-2021")</f>
         <v/>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2224,27 +2224,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 42050-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 42050-2021.xlsx", "A 42050-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 42050-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 42050-2021.png", "A 42050-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 42050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 42050-2021.docx", "A 42050-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 42050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 42050-2021.docx", "A 42050-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 42050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 42050-2021.docx", "A 42050-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 42050-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 42050-2021.docx", "A 42050-2021")</f>
         <v/>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2309,27 +2309,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 16309-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 16309-2022.xlsx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 16309-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 16309-2022.png", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 16309-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 16309-2022.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 16309-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 16309-2022.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 16309-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 16309-2022.docx", "A 16309-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 16309-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 16309-2022.docx", "A 16309-2022")</f>
         <v/>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2394,27 +2394,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 6435-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 6435-2023.xlsx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 6435-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 6435-2023.png", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 6435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 6435-2023.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 6435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 6435-2023.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 6435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 6435-2023.docx", "A 6435-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 6435-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 6435-2023.docx", "A 6435-2023")</f>
         <v/>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,27 +2479,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7540-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 7540-2023.xlsx", "A 7540-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7540-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 7540-2023.png", "A 7540-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 7540-2023.docx", "A 7540-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 7540-2023.docx", "A 7540-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 7540-2023.docx", "A 7540-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 7540-2023.docx", "A 7540-2023")</f>
         <v/>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2564,27 +2564,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 9268-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 9268-2023.xlsx", "A 9268-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 9268-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 9268-2023.png", "A 9268-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 9268-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 9268-2023.docx", "A 9268-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 9268-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 9268-2023.docx", "A 9268-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 9268-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 9268-2023.docx", "A 9268-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 9268-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 9268-2023.docx", "A 9268-2023")</f>
         <v/>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2649,27 +2649,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31142-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31142-2023.xlsx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31142-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31142-2023.png", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31142-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31142-2023.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31142-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31142-2023.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31142-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31142-2023.docx", "A 31142-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31142-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31142-2023.docx", "A 31142-2023")</f>
         <v/>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2739,27 +2739,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31828-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 31828-2023.xlsx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31828-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 31828-2023.png", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 31828-2023.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 31828-2023.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 31828-2023.docx", "A 31828-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 31828-2023.docx", "A 31828-2023")</f>
         <v/>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2824,27 +2824,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 33528-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/artfynd/A 33528-2023.xlsx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 33528-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/kartor/A 33528-2023.png", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 33528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomål/A 33528-2023.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 33528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/klagomålsmail/A 33528-2023.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 33528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsyn/A 33528-2023.docx", "A 33528-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 33528-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYNASHAMN/tillsynsmail/A 33528-2023.docx", "A 33528-2023")</f>
         <v/>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y155"/>
+  <dimension ref="A1:Y156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
       </c>
       <c r="R154" s="2" t="inlineStr"/>
     </row>
-    <row r="155">
+    <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
           <t>A 36056-2023</t>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10328,6 +10328,63 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A 44619-2023</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y156"/>
+  <dimension ref="A1:Y163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="R155" s="2" t="inlineStr"/>
     </row>
-    <row r="156">
+    <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
           <t>A 44619-2023</t>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10385,6 +10385,405 @@
         <v>0</v>
       </c>
       <c r="R156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A 47013-2023</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 47001-2023</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>A 47098-2023</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>8</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" s="2" t="inlineStr"/>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>A 47115-2023</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" s="2" t="inlineStr"/>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>A 47093-2023</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" s="2" t="inlineStr"/>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A 47110-2023</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>A 47089-2023</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>NYNÄSHAMN</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>45196</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45196</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45196</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45196</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45196</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>45196</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45196</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45196</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45196</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45196</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>45196</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45196</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45196</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45196</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45196</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>45196</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45196</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45196</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45196</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45196</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>

--- a/Översikt NYNÄSHAMN.xlsx
+++ b/Översikt NYNÄSHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43871</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43692</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>43851</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43453</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44935</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44424</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>43851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44203</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>44212</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>44284</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44295</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43869</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>43935</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44271</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44370</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44426</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44670</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44965</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44972</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44980</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45131</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>43345</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>43420</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>43424</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>43446</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>43446</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>43479</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>43480</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>43497</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>43523</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>43538</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43599</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43599</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43641</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43642</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>43643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>43643</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43668</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>43691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43711</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43733</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43809</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43837</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43837</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>43844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43844</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43849</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43851</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43854</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>43860</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43869</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>43882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>43885</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43899</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>43903</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>43903</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>43948</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43949</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43967</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43967</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43969</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43969</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43994</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44003</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44053</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44119</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44133</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44172</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44190</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44212</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44215</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44216</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44216</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>44242</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44258</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44265</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44285</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>44285</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44342</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44349</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44396</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44396</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44396</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44396</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>44398</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44410</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>44418</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>44418</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>44418</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44420</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44424</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44424</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>44509</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44538</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44574</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44602</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44680</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44789</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44809</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>44875</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44917</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44941</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44957</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>44973</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>44979</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>44979</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44979</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44979</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>44979</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44988</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>45086</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45098</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>45113</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45118</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45119</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45119</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>45119</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45139</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45140</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45149</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45149</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45149</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>45189</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>45196</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45196</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>45196</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>45196</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45196</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45196</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>45196</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
